--- a/replication/results/table5_panel2.xlsx
+++ b/replication/results/table5_panel2.xlsx
@@ -37,19 +37,19 @@
     <t>bac_test_primary</t>
   </si>
   <si>
-    <t>(1.13)</t>
-  </si>
-  <si>
-    <t>(1.04)</t>
+    <t>(1.11)</t>
+  </si>
+  <si>
+    <t>(0.97)</t>
   </si>
   <si>
     <t>multiple_imputation</t>
   </si>
   <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>(0.18)</t>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(0.42)</t>
   </si>
 </sst>
 </file>

--- a/replication/results/table5_panel2.xlsx
+++ b/replication/results/table5_panel2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>drink_def</t>
   </si>
@@ -31,25 +31,37 @@
     <t>lambda_se</t>
   </si>
   <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>proportion_se</t>
+  </si>
+  <si>
     <t>total_dof</t>
   </si>
   <si>
     <t>bac_test_primary</t>
   </si>
   <si>
-    <t>(1.11)</t>
-  </si>
-  <si>
-    <t>(0.97)</t>
+    <t>(1.12)</t>
+  </si>
+  <si>
+    <t>(0.99)</t>
+  </si>
+  <si>
+    <t>(0.005)</t>
   </si>
   <si>
     <t>multiple_imputation</t>
   </si>
   <si>
-    <t>(0.51)</t>
-  </si>
-  <si>
-    <t>(0.42)</t>
+    <t>(0.49)</t>
+  </si>
+  <si>
+    <t>(0.4)</t>
+  </si>
+  <si>
+    <t>(0.002)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -448,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -470,10 +482,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,9 +493,31 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.081</v>
+      </c>
+      <c r="C7">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>1594</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>7200</v>
       </c>
     </row>
